--- a/experiments/2014-01-04/Height = 0, Stationary.xlsx
+++ b/experiments/2014-01-04/Height = 0, Stationary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="40" windowWidth="30360" windowHeight="20260" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="880" yWindow="40" windowWidth="30360" windowHeight="20260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="A1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="24">
   <si>
     <t>0ft</t>
   </si>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>A1-D1</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Bluetooth address</t>
+  </si>
+  <si>
+    <t>Name of Bluetooth Device</t>
+  </si>
+  <si>
+    <t>Starting Time (sec)</t>
+  </si>
+  <si>
+    <t>Ending Time (sec)</t>
+  </si>
+  <si>
+    <t>Length of Trial</t>
+  </si>
+  <si>
+    <t># of Transmissions Received</t>
+  </si>
+  <si>
+    <t>Transmissions per sec</t>
   </si>
 </sst>
 </file>
@@ -142,7 +166,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -170,8 +194,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,8 +206,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -195,6 +223,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -208,6 +237,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,7 +276,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'A1'!$A$1:$A$7</c:f>
+              <c:f>'A1'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -275,7 +305,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'A1'!$I$1:$I$7</c:f>
+              <c:f>'A1'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -316,7 +346,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'A1'!$A$1:$A$7</c:f>
+              <c:f>'A1'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -345,7 +375,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'A2'!$I$1:$I$7</c:f>
+              <c:f>'A2'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -590,11 +620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122097016"/>
-        <c:axId val="-2122093992"/>
+        <c:axId val="442183960"/>
+        <c:axId val="442394216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122097016"/>
+        <c:axId val="442183960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122093992"/>
+        <c:crossAx val="442394216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122093992"/>
+        <c:axId val="442394216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,14 +652,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122097016"/>
+        <c:crossAx val="442183960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -893,11 +922,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113621640"/>
-        <c:axId val="-2113440584"/>
+        <c:axId val="441866392"/>
+        <c:axId val="441869448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113621640"/>
+        <c:axId val="441866392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113440584"/>
+        <c:crossAx val="441869448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -914,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113440584"/>
+        <c:axId val="441869448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +954,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113621640"/>
+        <c:crossAx val="441866392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,57 +1370,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>592</v>
-      </c>
-      <c r="F1">
-        <v>1388845408.97613</v>
-      </c>
-      <c r="G1">
-        <v>1388845419.6631701</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ref="H1:H6" si="0">G1-F1</f>
-        <v>10.687040090560913</v>
-      </c>
-      <c r="I1">
-        <f>E1/MAX(H1,10)</f>
-        <v>55.394196614165473</v>
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1400,152 +1428,183 @@
         <v>2</v>
       </c>
       <c r="E2">
+        <v>592</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1388845408.97613</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1388845419.6631701</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
+        <v>10.687040090560913</v>
+      </c>
+      <c r="I2">
+        <f>E2/MAX(H2,10)</f>
+        <v>55.394196614165473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>470</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="1">
         <v>1388845447.37568</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="1">
         <v>1388845459.4812801</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>12.105600118637085</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I6" si="1">E2/MAX(H2,10)</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="1">E3/MAX(H3,10)</f>
         <v>38.825006228019632</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>83</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="1">
         <v>1388845477.51912</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="1">
         <v>1388845487.4561801</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>9.9370601177215576</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="1">
         <v>1388845509.7084401</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="1">
         <v>1388845521.25664</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>11.548199892044067</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>0.77934224243904837</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="1">
         <v>1388845550.6376801</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="1">
         <v>1388845557.31952</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>6.6818399429321289</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <v>1388845585.30126</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="1">
         <v>1388845585.90731</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>0.60605001449584961</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
@@ -1562,56 +1621,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="28.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>626</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1388845724.47175</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1388845735.9268601</v>
-      </c>
-      <c r="H1">
-        <f>G1-F1</f>
-        <v>11.4551100730896</v>
-      </c>
-      <c r="I1">
-        <f>E1/MAX(H1,10)</f>
-        <v>54.648099931453494</v>
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -1620,29 +1679,29 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>464</v>
+        <v>626</v>
       </c>
       <c r="F2" s="1">
-        <v>1388845756.95099</v>
+        <v>1388845724.47175</v>
       </c>
       <c r="G2" s="1">
-        <v>1388845769.1492701</v>
+        <v>1388845735.9268601</v>
       </c>
       <c r="H2">
         <f>G2-F2</f>
-        <v>12.198280096054077</v>
+        <v>11.4551100730896</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I7" si="0">E2/MAX(H2,10)</f>
-        <v>38.038149341241606</v>
+        <f>E2/MAX(H2,10)</f>
+        <v>54.648099931453494</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1651,110 +1710,110 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>138</v>
+        <v>464</v>
       </c>
       <c r="F3" s="1">
-        <v>1388845790.23612</v>
+        <v>1388845756.95099</v>
       </c>
       <c r="G3" s="1">
-        <v>1388845802.21769</v>
+        <v>1388845769.1492701</v>
       </c>
       <c r="H3">
         <f>G3-F3</f>
+        <v>12.198280096054077</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="0">E3/MAX(H3,10)</f>
+        <v>38.038149341241606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1388845790.23612</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1388845802.21769</v>
+      </c>
+      <c r="H4">
+        <f>G4-F4</f>
         <v>11.98157000541687</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>11.517689245867626</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>31</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>1388845826.13483</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
         <v>1388845837.96841</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H7" si="1">G4-F4</f>
+      <c r="H5">
+        <f t="shared" ref="H5:H8" si="1">G5-F5</f>
         <v>11.833580017089844</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>2.6196636990015159</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>1388845881.2248499</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>1388845890.44784</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>9.2229900360107422</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1388845918.1736801</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1388845927.86268</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>9.6889998912811279</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -1763,10 +1822,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1775,19 +1834,50 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1">
-        <v>1388845968.7799101</v>
+        <v>1388845918.1736801</v>
       </c>
       <c r="G7" s="1">
-        <v>1388845968.7799101</v>
+        <v>1388845927.86268</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
+        <v>9.6889998912811279</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1388845968.7799101</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1388845968.7799101</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -1808,16 +1898,46 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1853,7 +1973,7 @@
         <v>55.362081701868725</v>
       </c>
       <c r="K2">
-        <f>'A1'!I1-'B1'!I2</f>
+        <f>'A1'!I2-'B1'!I2</f>
         <v>3.2114912296748344E-2</v>
       </c>
     </row>
@@ -1888,7 +2008,7 @@
         <v>17.403330276330248</v>
       </c>
       <c r="K3">
-        <f>'A1'!I2-'B1'!I3</f>
+        <f>'A1'!I3-'B1'!I3</f>
         <v>21.421675951689384</v>
       </c>
     </row>
@@ -1923,7 +2043,7 @@
         <v>15.069204203608622</v>
       </c>
       <c r="K4">
-        <f>'A1'!I3-'B1'!I4</f>
+        <f>'A1'!I4-'B1'!I4</f>
         <v>-6.7692042036086217</v>
       </c>
     </row>
@@ -1936,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>'A1'!I4-'B1'!I5</f>
+        <f>'A1'!I5-'B1'!I5</f>
         <v>0.77934224243904837</v>
       </c>
     </row>
@@ -1971,7 +2091,7 @@
         <v>0.1</v>
       </c>
       <c r="K6">
-        <f>'A1'!I5-'B1'!I6</f>
+        <f>'A1'!I6-'B1'!I6</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1983,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>'A1'!I6-'B1'!I7</f>
+        <f>'A1'!I7-'B1'!I7</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1995,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>'A1'!I7-'B1'!I8</f>
+        <f>'A1'!I8-'B1'!I8</f>
         <v>0</v>
       </c>
     </row>
@@ -2015,15 +2135,45 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2059,7 +2209,7 @@
         <v>53.994711247507674</v>
       </c>
       <c r="K2">
-        <f>'A1'!I1-'B2'!I2</f>
+        <f>'A1'!I2-'B2'!I2</f>
         <v>1.3994853666577995</v>
       </c>
     </row>
@@ -2094,7 +2244,7 @@
         <v>15.003419912335946</v>
       </c>
       <c r="K3">
-        <f>'A1'!I2-'B2'!I3</f>
+        <f>'A1'!I3-'B2'!I3</f>
         <v>23.821586315683685</v>
       </c>
     </row>
@@ -2129,7 +2279,7 @@
         <v>12.511556965746818</v>
       </c>
       <c r="K4">
-        <f>'A1'!I3-'B2'!I4</f>
+        <f>'A1'!I4-'B2'!I4</f>
         <v>-4.2115569657468175</v>
       </c>
     </row>
@@ -2141,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>'A1'!I4-'B2'!I5</f>
+        <f>'A1'!I5-'B2'!I5</f>
         <v>0.77934224243904837</v>
       </c>
     </row>
@@ -2176,7 +2326,7 @@
         <v>0.1</v>
       </c>
       <c r="K6">
-        <f>'A1'!I5-'B2'!I6</f>
+        <f>'A1'!I6-'B2'!I6</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2188,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>'A1'!I6-'B2'!I7</f>
+        <f>'A1'!I7-'B2'!I7</f>
         <v>0.2</v>
       </c>
     </row>
@@ -2200,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>'A1'!I7-'B2'!I8</f>
+        <f>'A1'!I8-'B2'!I8</f>
         <v>0</v>
       </c>
     </row>
@@ -2220,16 +2370,46 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2445,7 @@
         <v>54.919240746169145</v>
       </c>
       <c r="K2">
-        <f>'A1'!I1-'C1'!I2</f>
+        <f>'A1'!I2-'C1'!I2</f>
         <v>0.47495586799632861</v>
       </c>
     </row>
@@ -2300,7 +2480,7 @@
         <v>11.96460357428748</v>
       </c>
       <c r="K3">
-        <f>'A1'!I2-'C1'!I3</f>
+        <f>'A1'!I3-'C1'!I3</f>
         <v>26.860402653732152</v>
       </c>
     </row>
@@ -2335,7 +2515,7 @@
         <v>1.9</v>
       </c>
       <c r="K4">
-        <f>'A1'!I3-'C1'!I4</f>
+        <f>'A1'!I4-'C1'!I4</f>
         <v>6.4</v>
       </c>
     </row>
@@ -2370,7 +2550,7 @@
         <v>4.7552350741594491</v>
       </c>
       <c r="K5">
-        <f>'A1'!I4-'C1'!I5</f>
+        <f>'A1'!I5-'C1'!I5</f>
         <v>-3.975892831720401</v>
       </c>
     </row>
@@ -2405,7 +2585,7 @@
         <v>1.9885309134950155</v>
       </c>
       <c r="K6">
-        <f>'A1'!I5-'C1'!I6</f>
+        <f>'A1'!I6-'C1'!I6</f>
         <v>-1.3885309134950155</v>
       </c>
     </row>
@@ -2417,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f>'A1'!I6-'C1'!I7</f>
+        <f>'A1'!I7-'C1'!I7</f>
         <v>0.2</v>
       </c>
     </row>
@@ -2429,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f>'A1'!I7-'C1'!I8</f>
+        <f>'A1'!I8-'C1'!I8</f>
         <v>0</v>
       </c>
     </row>
@@ -2449,17 +2629,46 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2495,7 +2704,7 @@
         <v>54.685015728558284</v>
       </c>
       <c r="K2">
-        <f>'A1'!I1-'C2'!I2</f>
+        <f>'A1'!I2-'C2'!I2</f>
         <v>0.70918088560718928</v>
       </c>
     </row>
@@ -2530,7 +2739,7 @@
         <v>28.222628638980616</v>
       </c>
       <c r="K3">
-        <f>'A1'!I2-'C2'!I3</f>
+        <f>'A1'!I3-'C2'!I3</f>
         <v>10.602377589039016</v>
       </c>
     </row>
@@ -2565,7 +2774,7 @@
         <v>3.3</v>
       </c>
       <c r="K4">
-        <f>'A1'!I3-'C2'!I4</f>
+        <f>'A1'!I4-'C2'!I4</f>
         <v>5.0000000000000009</v>
       </c>
     </row>
@@ -2600,7 +2809,7 @@
         <v>4.2953128511771883</v>
       </c>
       <c r="K5">
-        <f>'A1'!I4-'C2'!I5</f>
+        <f>'A1'!I5-'C2'!I5</f>
         <v>-3.5159706087381402</v>
       </c>
     </row>
@@ -2635,7 +2844,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="K6">
-        <f>'A1'!I5-'C2'!I6</f>
+        <f>'A1'!I6-'C2'!I6</f>
         <v>-0.50000000000000011</v>
       </c>
     </row>
@@ -2670,7 +2879,7 @@
         <v>0.1</v>
       </c>
       <c r="K7">
-        <f>'A1'!I6-'C2'!I7</f>
+        <f>'A1'!I7-'C2'!I7</f>
         <v>0.1</v>
       </c>
     </row>
@@ -2705,7 +2914,7 @@
         <v>0.1</v>
       </c>
       <c r="K8">
-        <f>'A1'!I7-'C2'!I8</f>
+        <f>'A1'!I8-'C2'!I8</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -2725,17 +2934,45 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
@@ -2771,7 +3008,7 @@
         <v>54.672147043742065</v>
       </c>
       <c r="K2">
-        <f>'A1'!I1-'D1'!I2</f>
+        <f>'A1'!I2-'D1'!I2</f>
         <v>0.72204957042340823</v>
       </c>
     </row>
@@ -2806,7 +3043,7 @@
         <v>20.097984174005866</v>
       </c>
       <c r="K3">
-        <f>'A1'!I2-'D1'!I3</f>
+        <f>'A1'!I3-'D1'!I3</f>
         <v>18.727022054013766</v>
       </c>
     </row>
@@ -2841,7 +3078,7 @@
         <v>8.6693165818821285</v>
       </c>
       <c r="K4">
-        <f>'A1'!I3-'D1'!I4</f>
+        <f>'A1'!I4-'D1'!I4</f>
         <v>-0.36931658188212779</v>
       </c>
     </row>
@@ -2876,7 +3113,7 @@
         <v>0.1</v>
       </c>
       <c r="K5">
-        <f>'A1'!I4-'D1'!I5</f>
+        <f>'A1'!I5-'D1'!I5</f>
         <v>0.67934224243904839</v>
       </c>
     </row>
@@ -2889,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f>'A1'!I5-'D1'!I6</f>
+        <f>'A1'!I6-'D1'!I6</f>
         <v>0.6</v>
       </c>
     </row>
@@ -2924,7 +3161,7 @@
         <v>0.4</v>
       </c>
       <c r="K7">
-        <f>'A1'!I6-'D1'!I7</f>
+        <f>'A1'!I7-'D1'!I7</f>
         <v>-0.2</v>
       </c>
     </row>
@@ -2959,7 +3196,7 @@
         <v>0.2</v>
       </c>
       <c r="K8">
-        <f>'A1'!I7-'D1'!I8</f>
+        <f>'A1'!I8-'D1'!I8</f>
         <v>-0.2</v>
       </c>
     </row>
@@ -2998,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
